--- a/data/trans_dic/IP24_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP24_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>13,78; 28,13</t>
+          <t>14,06; 27,82</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,5; 19,95</t>
+          <t>7,49; 19,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 18,85</t>
+          <t>6,21; 18,7</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>13,19; 30,58</t>
+          <t>12,78; 30,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,72; 32,59</t>
+          <t>18,06; 32,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,77; 25,07</t>
+          <t>10,64; 24,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,03; 31,33</t>
+          <t>14,04; 31,8</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 40,58</t>
+          <t>14,21; 37,73</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,23; 27,39</t>
+          <t>17,34; 27,18</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,84; 19,41</t>
+          <t>10,83; 20,37</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>11,17; 22,05</t>
+          <t>10,65; 22,0</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>16,01; 31,03</t>
+          <t>15,86; 31,29</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,45; 25,36</t>
+          <t>19,7; 25,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,91; 19,52</t>
+          <t>13,66; 19,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,18; 17,54</t>
+          <t>12,22; 17,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,6; 20,83</t>
+          <t>13,48; 20,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,87; 29,77</t>
+          <t>22,92; 29,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,63; 25,04</t>
+          <t>18,79; 25,19</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,96; 25,29</t>
+          <t>18,72; 24,95</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,93; 26,88</t>
+          <t>16,83; 25,37</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,96; 26,37</t>
+          <t>21,84; 26,46</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,98; 20,94</t>
+          <t>16,84; 21,12</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,36; 20,13</t>
+          <t>16,26; 20,51</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,91; 21,57</t>
+          <t>15,89; 21,87</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,75; 33,65</t>
+          <t>21,98; 33,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,15; 22,01</t>
+          <t>12,7; 22,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,49; 30,33</t>
+          <t>19,47; 29,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,34; 20,56</t>
+          <t>11,3; 20,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,78; 29,59</t>
+          <t>19,08; 29,45</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,3; 23,05</t>
+          <t>13,56; 23,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,0; 28,14</t>
+          <t>18,02; 28,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,73; 21,46</t>
+          <t>11,91; 21,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>21,68; 29,63</t>
+          <t>22,05; 29,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,7; 21,26</t>
+          <t>14,17; 20,74</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,95; 27,39</t>
+          <t>19,88; 27,11</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,53; 19,32</t>
+          <t>12,77; 19,3</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>21,21; 25,96</t>
+          <t>21,03; 25,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,82; 18,31</t>
+          <t>13,68; 18,24</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,41; 19,15</t>
+          <t>14,9; 19,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,08; 19,57</t>
+          <t>14,01; 19,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,78; 28,19</t>
+          <t>22,63; 28,03</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>18,15; 23,0</t>
+          <t>18,05; 22,81</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>19,52; 24,58</t>
+          <t>19,48; 24,52</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>16,94; 24,19</t>
+          <t>16,89; 23,68</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,5; 26,15</t>
+          <t>22,46; 26,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>16,53; 19,8</t>
+          <t>16,26; 19,74</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>17,56; 20,92</t>
+          <t>17,67; 21,03</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,17; 20,52</t>
+          <t>16,0; 20,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP24_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/IP24_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Primarios</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>24,52%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,27%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,89%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,81%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>100,0%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,94%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,13%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,62%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>17,3; 32,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>11,18; 24,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,01; 31,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,15; 52,83</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,99; 26,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,49; 19,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,55; 18,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>14,07; 33,33</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>22,85; 100</t>
+          <t>17,83; 27,4</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>10,7; 19,84</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,46; 22,11</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 77,15</t>
+          <t>18,0; 38,82</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Primarios</t>
+          <t>Secundarios</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>20,05%</t>
+          <t>26,08%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>21,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>11,1%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>20,86%</t>
+          <t>24,62%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,52%</t>
+          <t>22,57%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>16,23%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>14,66%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,12%</t>
+          <t>17,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>22,33%</t>
+          <t>24,21%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>18,89%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,13%</t>
+          <t>18,16%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>22,39%</t>
+          <t>21,06%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,06; 27,82</t>
+          <t>22,6; 29,38</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,49; 19,47</t>
+          <t>18,68; 25,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>6,21; 18,7</t>
+          <t>18,97; 24,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,78; 30,76</t>
+          <t>18,82; 41,99</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,06; 32,69</t>
+          <t>19,45; 25,7</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,64; 24,22</t>
+          <t>13,59; 19,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,04; 31,8</t>
+          <t>12,37; 17,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,21; 37,73</t>
+          <t>14,37; 23,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>17,34; 27,18</t>
+          <t>21,99; 26,49</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>10,83; 20,37</t>
+          <t>16,72; 20,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,65; 22,0</t>
+          <t>16,16; 20,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>15,86; 31,29</t>
+          <t>17,59; 29,03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Secundarios</t>
+          <t>Universitarios</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>22,57%</t>
+          <t>23,81%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>16,23%</t>
+          <t>18,05%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,66%</t>
+          <t>22,49%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,4%</t>
+          <t>17,18%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,08%</t>
+          <t>27,45%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>21,79%</t>
+          <t>16,94%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>21,77%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>20,21%</t>
+          <t>16,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>24,21%</t>
+          <t>25,54%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>17,49%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>18,16%</t>
+          <t>23,52%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,22%</t>
+          <t>16,65%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>19,7; 25,81</t>
+          <t>18,96; 29,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,66; 19,47</t>
+          <t>13,42; 24,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>12,22; 17,86</t>
+          <t>18,05; 28,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>13,48; 20,8</t>
+          <t>12,73; 23,04</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,92; 29,64</t>
+          <t>22,4; 33,01</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,79; 25,19</t>
+          <t>12,48; 22,04</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>18,72; 24,95</t>
+          <t>19,6; 29,74</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,83; 25,37</t>
+          <t>11,59; 21,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,84; 26,46</t>
+          <t>21,74; 29,92</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>16,84; 21,12</t>
+          <t>14,46; 21,33</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,26; 20,51</t>
+          <t>19,77; 27,65</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>15,89; 21,87</t>
+          <t>13,55; 20,44</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Universitarios</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,94%</t>
+          <t>20,33%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>24,47%</t>
+          <t>21,96%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15,37%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>23,81%</t>
+          <t>23,33%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>18,05%</t>
+          <t>15,96%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>16,16%</t>
+          <t>17,88%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>25,54%</t>
+          <t>24,28%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>17,49%</t>
+          <t>18,09%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>23,52%</t>
+          <t>19,31%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>20,48%</t>
         </is>
       </c>
     </row>
@@ -1144,216 +1144,75 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>21,98; 33,39</t>
+          <t>22,8; 28,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,7; 22,52</t>
+          <t>18,08; 22,89</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,47; 29,82</t>
+          <t>19,51; 24,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>11,3; 20,89</t>
+          <t>19,04; 35,1</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,08; 29,45</t>
+          <t>20,86; 25,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>13,56; 23,67</t>
+          <t>13,78; 18,21</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,02; 28,17</t>
+          <t>14,58; 19,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,91; 21,53</t>
+          <t>15,33; 22,47</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>22,05; 29,55</t>
+          <t>22,61; 26,42</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>14,17; 20,74</t>
+          <t>16,42; 19,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>19,88; 27,11</t>
+          <t>17,64; 21,0</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 19,3</t>
+          <t>17,86; 25,45</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>23,41%</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>15,94%</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>16,8%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>16,51%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>25,29%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>20,33%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>21,96%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>19,54%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>24,32%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>18,08%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>19,31%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>17,95%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>21,03; 25,98</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>13,68; 18,24</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>14,9; 19,38</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>14,01; 19,58</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>22,63; 28,03</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>18,05; 22,81</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>19,48; 24,52</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>16,89; 23,68</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>22,46; 26,2</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>16,26; 19,74</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>17,67; 21,03</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>16,0; 20,56</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
